--- a/Gefahrgutzwischenfaelle.xlsx
+++ b/Gefahrgutzwischenfaelle.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cramer\Desktop\Statistiken2022\B\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/151d45c5db862766/Desktop/data engineering/2023-amse-template_magnus/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_CBD13945D4D22A8BE87AC200CB4443DE60DE3F87" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6F46D58-FD7C-475C-87D0-24DB2B1AAB21}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17100"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gefahrgutzwischenfälle" sheetId="1" r:id="rId1"/>
@@ -108,7 +109,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -225,7 +226,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Standard 2" xfId="1"/>
+    <cellStyle name="Standard 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -323,320 +324,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>[1]Gefahrgutzwischenfälle!$A$9:$A$29</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2003</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2004</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2005</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2006</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2007</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2008</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2009</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2010</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2011</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2012</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2020</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>[1]Gefahrgutzwischenfälle!$B$9:$B$29</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>785</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>719</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>814</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1360</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1385</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1149</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5231</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>11641</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>20851</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>37510</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>80399</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>74094</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>88007</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>73085</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>58822</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>100704</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>98827</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>162451</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>171091</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>146121</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>91703</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-560B-4385-83FA-185C6851DC8F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="126166528"/>
-        <c:axId val="126168064"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="126166528"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126168064"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="126168064"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126166528"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="de-DE">
-                <a:latin typeface="+mn-lt"/>
-              </a:rPr>
-              <a:t>Gefahrgutzwischenfälle </a:t>
-            </a:r>
-            <a:br>
-              <a:rPr lang="de-DE">
-                <a:latin typeface="+mn-lt"/>
-              </a:rPr>
-            </a:br>
-            <a:r>
-              <a:rPr lang="de-DE">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-              </a:rPr>
-              <a:t>Incidents/Acccidents Dangerous Goods</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="de-DE">
-                <a:latin typeface="+mn-lt"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.32575291054786876"/>
-          <c:y val="1.517916569867115E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>[1]Gefahrgutzwischenfälle!$B$6:$B$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Gefahrgutzwischenfälle Incidents/Acccidents</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:srgbClr val="00B050"/>
@@ -889,20 +576,26 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>978550</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2312050</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>24608</xdr:rowOff>
+      <xdr:rowOff>5558</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
       <xdr:row>83</xdr:row>
-      <xdr:rowOff>80560</xdr:rowOff>
+      <xdr:rowOff>61510</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Diagramm 3"/>
+        <xdr:cNvPr id="5" name="Diagramm 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -919,43 +612,11 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>2312050</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>5558</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>61510</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Diagramm 4"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Gefahrgutzwischenfälle"/>
@@ -1416,29 +1077,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A4:G151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="6" width="30.7109375" customWidth="1"/>
-    <col min="7" max="7" width="35.7109375" customWidth="1"/>
-    <col min="8" max="13" width="30.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.7265625" customWidth="1"/>
+    <col min="2" max="6" width="30.7265625" customWidth="1"/>
+    <col min="7" max="7" width="35.7265625" customWidth="1"/>
+    <col min="8" max="13" width="30.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="12" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
     </row>
-    <row r="6" spans="1:7" ht="81" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="60" x14ac:dyDescent="0.4">
       <c r="A6" s="10" t="s">
         <v>14</v>
       </c>
@@ -1461,7 +1122,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="6" customFormat="1" ht="81" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" s="6" customFormat="1" ht="80" x14ac:dyDescent="0.4">
       <c r="A7" s="8"/>
       <c r="B7" s="8" t="s">
         <v>7</v>
@@ -1482,7 +1143,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="20" x14ac:dyDescent="0.4">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -1491,7 +1152,7 @@
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="20" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>2000</v>
       </c>
@@ -1514,7 +1175,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="20" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>2001</v>
       </c>
@@ -1537,7 +1198,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="20" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>2002</v>
       </c>
@@ -1560,7 +1221,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="20" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>2003</v>
       </c>
@@ -1583,7 +1244,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="20" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>2004</v>
       </c>
@@ -1606,7 +1267,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="20" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>2005</v>
       </c>
@@ -1629,7 +1290,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="20" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>2006</v>
       </c>
@@ -1652,7 +1313,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="20" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <v>2007</v>
       </c>
@@ -1675,7 +1336,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="20" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
         <v>2008</v>
       </c>
@@ -1698,7 +1359,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="20" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
         <v>2009</v>
       </c>
@@ -1721,7 +1382,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="20" x14ac:dyDescent="0.4">
       <c r="A19" s="2">
         <v>2010</v>
       </c>
@@ -1744,7 +1405,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="20" x14ac:dyDescent="0.4">
       <c r="A20" s="2">
         <v>2011</v>
       </c>
@@ -1767,7 +1428,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="20" x14ac:dyDescent="0.4">
       <c r="A21" s="2">
         <v>2012</v>
       </c>
@@ -1790,7 +1451,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="20" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
         <v>2013</v>
       </c>
@@ -1813,7 +1474,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="20" x14ac:dyDescent="0.4">
       <c r="A23" s="2">
         <v>2014</v>
       </c>
@@ -1836,7 +1497,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="20" x14ac:dyDescent="0.4">
       <c r="A24" s="2">
         <v>2015</v>
       </c>
@@ -1859,7 +1520,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="20" x14ac:dyDescent="0.4">
       <c r="A25" s="2">
         <v>2016</v>
       </c>
@@ -1882,7 +1543,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="20" x14ac:dyDescent="0.4">
       <c r="A26" s="2">
         <v>2017</v>
       </c>
@@ -1905,7 +1566,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="20" x14ac:dyDescent="0.4">
       <c r="A27" s="2">
         <v>2018</v>
       </c>
@@ -1928,7 +1589,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="20" x14ac:dyDescent="0.4">
       <c r="A28" s="2">
         <v>2019</v>
       </c>
@@ -1951,7 +1612,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="20" x14ac:dyDescent="0.4">
       <c r="A29" s="2">
         <v>2020</v>
       </c>
@@ -1974,7 +1635,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="20" x14ac:dyDescent="0.4">
       <c r="A30" s="2">
         <v>2021</v>
       </c>
@@ -1997,7 +1658,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="20" x14ac:dyDescent="0.4">
       <c r="A31" s="2">
         <v>2022</v>
       </c>
@@ -2020,7 +1681,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="13" t="s">
@@ -2031,7 +1692,7 @@
       <c r="F32" s="13"/>
       <c r="G32" s="13"/>
     </row>
-    <row r="33" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="20" x14ac:dyDescent="0.4">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -2040,7 +1701,7 @@
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
     </row>
-    <row r="34" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="20" x14ac:dyDescent="0.4">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -2049,7 +1710,7 @@
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -2058,7 +1719,7 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -2067,7 +1728,7 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -2076,7 +1737,7 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -2085,7 +1746,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -2094,7 +1755,7 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -2103,7 +1764,7 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -2112,7 +1773,7 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -2121,7 +1782,7 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -2130,7 +1791,7 @@
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -2139,7 +1800,7 @@
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -2148,7 +1809,7 @@
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -2157,7 +1818,7 @@
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -2166,7 +1827,7 @@
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -2175,7 +1836,7 @@
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -2184,7 +1845,7 @@
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -2193,7 +1854,7 @@
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -2202,7 +1863,7 @@
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -2211,7 +1872,7 @@
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -2220,7 +1881,7 @@
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -2229,7 +1890,7 @@
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -2238,7 +1899,7 @@
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -2247,7 +1908,7 @@
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -2256,7 +1917,7 @@
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -2265,7 +1926,7 @@
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -2274,7 +1935,7 @@
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -2283,7 +1944,7 @@
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -2292,7 +1953,7 @@
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -2301,7 +1962,7 @@
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -2310,7 +1971,7 @@
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -2319,7 +1980,7 @@
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -2328,7 +1989,7 @@
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -2337,7 +1998,7 @@
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -2346,7 +2007,7 @@
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -2355,7 +2016,7 @@
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -2364,7 +2025,7 @@
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -2373,7 +2034,7 @@
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -2382,7 +2043,7 @@
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
     </row>
-    <row r="72" spans="1:7" ht="25.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" ht="25" x14ac:dyDescent="0.5">
       <c r="A72" s="3"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -2391,7 +2052,7 @@
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
     </row>
-    <row r="73" spans="1:7" ht="25.5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" ht="25" x14ac:dyDescent="0.5">
       <c r="A73" s="3"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -2400,7 +2061,7 @@
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -2409,7 +2070,7 @@
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -2418,7 +2079,7 @@
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -2427,7 +2088,7 @@
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -2438,7 +2099,7 @@
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
     </row>
-    <row r="78" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" ht="20" x14ac:dyDescent="0.4">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -2447,7 +2108,7 @@
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
     </row>
-    <row r="79" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" ht="20" x14ac:dyDescent="0.4">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -2456,7 +2117,7 @@
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
     </row>
-    <row r="80" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" ht="20" x14ac:dyDescent="0.4">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -2465,7 +2126,7 @@
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
     </row>
-    <row r="81" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" ht="20" x14ac:dyDescent="0.4">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -2474,7 +2135,7 @@
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -2483,7 +2144,7 @@
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -2492,7 +2153,7 @@
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -2501,7 +2162,7 @@
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -2510,7 +2171,7 @@
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -2519,7 +2180,7 @@
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -2528,7 +2189,7 @@
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -2537,7 +2198,7 @@
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -2546,7 +2207,7 @@
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -2555,7 +2216,7 @@
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -2564,7 +2225,7 @@
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -2573,7 +2234,7 @@
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -2582,7 +2243,7 @@
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -2591,7 +2252,7 @@
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -2600,7 +2261,7 @@
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -2609,7 +2270,7 @@
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -2618,7 +2279,7 @@
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -2627,7 +2288,7 @@
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -2636,7 +2297,7 @@
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -2645,7 +2306,7 @@
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -2654,7 +2315,7 @@
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -2663,7 +2324,7 @@
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -2672,7 +2333,7 @@
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -2681,7 +2342,7 @@
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -2690,7 +2351,7 @@
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -2699,7 +2360,7 @@
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -2708,7 +2369,7 @@
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -2717,7 +2378,7 @@
       <c r="F108" s="1"/>
       <c r="G108" s="1"/>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -2726,7 +2387,7 @@
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -2735,7 +2396,7 @@
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -2744,7 +2405,7 @@
       <c r="F111" s="1"/>
       <c r="G111" s="1"/>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -2753,7 +2414,7 @@
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -2762,7 +2423,7 @@
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -2771,7 +2432,7 @@
       <c r="F114" s="1"/>
       <c r="G114" s="1"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -2780,7 +2441,7 @@
       <c r="F115" s="1"/>
       <c r="G115" s="1"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -2789,7 +2450,7 @@
       <c r="F116" s="1"/>
       <c r="G116" s="1"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -2798,7 +2459,7 @@
       <c r="F117" s="1"/>
       <c r="G117" s="1"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -2807,7 +2468,7 @@
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -2816,7 +2477,7 @@
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -2825,7 +2486,7 @@
       <c r="F120" s="1"/>
       <c r="G120" s="1"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -2834,7 +2495,7 @@
       <c r="F121" s="1"/>
       <c r="G121" s="1"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -2843,7 +2504,7 @@
       <c r="F122" s="1"/>
       <c r="G122" s="1"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -2852,7 +2513,7 @@
       <c r="F123" s="1"/>
       <c r="G123" s="1"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -2861,7 +2522,7 @@
       <c r="F124" s="1"/>
       <c r="G124" s="1"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -2870,7 +2531,7 @@
       <c r="F125" s="1"/>
       <c r="G125" s="1"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -2879,7 +2540,7 @@
       <c r="F126" s="1"/>
       <c r="G126" s="1"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -2888,7 +2549,7 @@
       <c r="F127" s="1"/>
       <c r="G127" s="1"/>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -2897,7 +2558,7 @@
       <c r="F128" s="1"/>
       <c r="G128" s="1"/>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -2906,7 +2567,7 @@
       <c r="F129" s="1"/>
       <c r="G129" s="1"/>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -2915,7 +2576,7 @@
       <c r="F130" s="1"/>
       <c r="G130" s="1"/>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -2924,7 +2585,7 @@
       <c r="F131" s="1"/>
       <c r="G131" s="1"/>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -2933,7 +2594,7 @@
       <c r="F132" s="1"/>
       <c r="G132" s="1"/>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -2942,7 +2603,7 @@
       <c r="F133" s="1"/>
       <c r="G133" s="1"/>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -2951,7 +2612,7 @@
       <c r="F134" s="1"/>
       <c r="G134" s="1"/>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -2960,7 +2621,7 @@
       <c r="F135" s="1"/>
       <c r="G135" s="1"/>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -2969,7 +2630,7 @@
       <c r="F136" s="1"/>
       <c r="G136" s="1"/>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -2978,7 +2639,7 @@
       <c r="F137" s="1"/>
       <c r="G137" s="1"/>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -2987,7 +2648,7 @@
       <c r="F138" s="1"/>
       <c r="G138" s="1"/>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -2996,7 +2657,7 @@
       <c r="F139" s="1"/>
       <c r="G139" s="1"/>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -3005,7 +2666,7 @@
       <c r="F140" s="1"/>
       <c r="G140" s="1"/>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -3014,7 +2675,7 @@
       <c r="F141" s="1"/>
       <c r="G141" s="1"/>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -3023,7 +2684,7 @@
       <c r="F142" s="1"/>
       <c r="G142" s="1"/>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -3032,7 +2693,7 @@
       <c r="F143" s="1"/>
       <c r="G143" s="1"/>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -3041,7 +2702,7 @@
       <c r="F144" s="1"/>
       <c r="G144" s="1"/>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -3050,7 +2711,7 @@
       <c r="F145" s="1"/>
       <c r="G145" s="1"/>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -3059,7 +2720,7 @@
       <c r="F146" s="1"/>
       <c r="G146" s="1"/>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -3068,7 +2729,7 @@
       <c r="F147" s="1"/>
       <c r="G147" s="1"/>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -3077,7 +2738,7 @@
       <c r="F148" s="1"/>
       <c r="G148" s="1"/>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -3086,7 +2747,7 @@
       <c r="F149" s="1"/>
       <c r="G149" s="1"/>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -3095,7 +2756,7 @@
       <c r="F150" s="1"/>
       <c r="G150" s="1"/>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>

--- a/Gefahrgutzwischenfaelle.xlsx
+++ b/Gefahrgutzwischenfaelle.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="1" documentId="11_CBD13945D4D22A8BE87AC200CB4443DE60DE3F87" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6F46D58-FD7C-475C-87D0-24DB2B1AAB21}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gefahrgutzwischenfälle" sheetId="1" r:id="rId1"/>
@@ -815,6 +815,10 @@
 </externalLink>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
@@ -1080,26 +1084,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A4:G151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.7265625" customWidth="1"/>
-    <col min="2" max="6" width="30.7265625" customWidth="1"/>
-    <col min="7" max="7" width="35.7265625" customWidth="1"/>
-    <col min="8" max="13" width="30.7265625" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="6" width="30.7109375" customWidth="1"/>
+    <col min="7" max="7" width="35.7109375" customWidth="1"/>
+    <col min="8" max="13" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:7" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
     </row>
-    <row r="6" spans="1:7" ht="60" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" ht="81" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>14</v>
       </c>
@@ -1122,7 +1126,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="6" customFormat="1" ht="80" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" s="6" customFormat="1" ht="81" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
       <c r="B7" s="8" t="s">
         <v>7</v>
@@ -1143,7 +1147,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="20" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -1152,7 +1156,7 @@
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="1:7" ht="20" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>2000</v>
       </c>
@@ -1175,7 +1179,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="20" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>2001</v>
       </c>
@@ -1198,7 +1202,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="20" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>2002</v>
       </c>
@@ -1221,7 +1225,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="20" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>2003</v>
       </c>
@@ -1244,7 +1248,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="20" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>2004</v>
       </c>
@@ -1267,7 +1271,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="20" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>2005</v>
       </c>
@@ -1290,7 +1294,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="20" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>2006</v>
       </c>
@@ -1313,7 +1317,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="20" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>2007</v>
       </c>
@@ -1336,7 +1340,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="20" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>2008</v>
       </c>
@@ -1359,7 +1363,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="20" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>2009</v>
       </c>
@@ -1382,7 +1386,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="20" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>2010</v>
       </c>
@@ -1405,7 +1409,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="20" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>2011</v>
       </c>
@@ -1428,7 +1432,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="20" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>2012</v>
       </c>
@@ -1451,7 +1455,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="20" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>2013</v>
       </c>
@@ -1474,7 +1478,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="20" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>2014</v>
       </c>
@@ -1497,7 +1501,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="20" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>2015</v>
       </c>
@@ -1520,7 +1524,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="20" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>2016</v>
       </c>
@@ -1543,7 +1547,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="20" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>2017</v>
       </c>
@@ -1566,7 +1570,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="20" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>2018</v>
       </c>
@@ -1589,7 +1593,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="20" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>2019</v>
       </c>
@@ -1612,7 +1616,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="20" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>2020</v>
       </c>
@@ -1635,7 +1639,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="20" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>2021</v>
       </c>
@@ -1658,7 +1662,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="20" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>2022</v>
       </c>
@@ -1681,7 +1685,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="13" t="s">
@@ -1692,7 +1696,7 @@
       <c r="F32" s="13"/>
       <c r="G32" s="13"/>
     </row>
-    <row r="33" spans="1:7" ht="20" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -1701,7 +1705,7 @@
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
     </row>
-    <row r="34" spans="1:7" ht="20" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -1710,7 +1714,7 @@
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -1719,7 +1723,7 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -1728,7 +1732,7 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -1737,7 +1741,7 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -1746,7 +1750,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -1755,7 +1759,7 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -1764,7 +1768,7 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -1773,7 +1777,7 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -1782,7 +1786,7 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -1791,7 +1795,7 @@
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -1800,7 +1804,7 @@
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -1809,7 +1813,7 @@
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -1818,7 +1822,7 @@
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -1827,7 +1831,7 @@
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -1836,7 +1840,7 @@
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -1845,7 +1849,7 @@
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -1854,7 +1858,7 @@
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -1863,7 +1867,7 @@
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -1872,7 +1876,7 @@
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -1881,7 +1885,7 @@
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -1890,7 +1894,7 @@
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -1899,7 +1903,7 @@
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -1908,7 +1912,7 @@
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -1917,7 +1921,7 @@
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -1926,7 +1930,7 @@
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -1935,7 +1939,7 @@
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -1944,7 +1948,7 @@
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -1953,7 +1957,7 @@
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -1962,7 +1966,7 @@
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -1971,7 +1975,7 @@
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -1980,7 +1984,7 @@
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -1989,7 +1993,7 @@
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -1998,7 +2002,7 @@
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -2007,7 +2011,7 @@
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -2016,7 +2020,7 @@
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -2025,7 +2029,7 @@
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -2034,7 +2038,7 @@
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -2043,7 +2047,7 @@
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
     </row>
-    <row r="72" spans="1:7" ht="25" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:7" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A72" s="3"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -2052,7 +2056,7 @@
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
     </row>
-    <row r="73" spans="1:7" ht="25" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:7" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A73" s="3"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -2061,7 +2065,7 @@
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -2070,7 +2074,7 @@
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -2079,7 +2083,7 @@
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -2088,7 +2092,7 @@
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -2099,7 +2103,7 @@
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
     </row>
-    <row r="78" spans="1:7" ht="20" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -2108,7 +2112,7 @@
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
     </row>
-    <row r="79" spans="1:7" ht="20" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -2117,7 +2121,7 @@
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
     </row>
-    <row r="80" spans="1:7" ht="20" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -2126,7 +2130,7 @@
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
     </row>
-    <row r="81" spans="1:7" ht="20" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -2135,7 +2139,7 @@
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -2144,7 +2148,7 @@
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -2153,7 +2157,7 @@
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -2162,7 +2166,7 @@
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -2171,7 +2175,7 @@
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -2180,7 +2184,7 @@
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -2189,7 +2193,7 @@
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -2198,7 +2202,7 @@
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -2207,7 +2211,7 @@
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -2216,7 +2220,7 @@
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -2225,7 +2229,7 @@
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -2234,7 +2238,7 @@
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -2243,7 +2247,7 @@
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -2252,7 +2256,7 @@
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -2261,7 +2265,7 @@
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -2270,7 +2274,7 @@
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -2279,7 +2283,7 @@
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -2288,7 +2292,7 @@
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -2297,7 +2301,7 @@
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -2306,7 +2310,7 @@
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -2315,7 +2319,7 @@
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -2324,7 +2328,7 @@
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -2333,7 +2337,7 @@
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -2342,7 +2346,7 @@
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -2351,7 +2355,7 @@
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -2360,7 +2364,7 @@
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -2369,7 +2373,7 @@
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -2378,7 +2382,7 @@
       <c r="F108" s="1"/>
       <c r="G108" s="1"/>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -2387,7 +2391,7 @@
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -2396,7 +2400,7 @@
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -2405,7 +2409,7 @@
       <c r="F111" s="1"/>
       <c r="G111" s="1"/>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -2414,7 +2418,7 @@
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -2423,7 +2427,7 @@
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -2432,7 +2436,7 @@
       <c r="F114" s="1"/>
       <c r="G114" s="1"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -2441,7 +2445,7 @@
       <c r="F115" s="1"/>
       <c r="G115" s="1"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -2450,7 +2454,7 @@
       <c r="F116" s="1"/>
       <c r="G116" s="1"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -2459,7 +2463,7 @@
       <c r="F117" s="1"/>
       <c r="G117" s="1"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -2468,7 +2472,7 @@
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -2477,7 +2481,7 @@
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -2486,7 +2490,7 @@
       <c r="F120" s="1"/>
       <c r="G120" s="1"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -2495,7 +2499,7 @@
       <c r="F121" s="1"/>
       <c r="G121" s="1"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -2504,7 +2508,7 @@
       <c r="F122" s="1"/>
       <c r="G122" s="1"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -2513,7 +2517,7 @@
       <c r="F123" s="1"/>
       <c r="G123" s="1"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -2522,7 +2526,7 @@
       <c r="F124" s="1"/>
       <c r="G124" s="1"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -2531,7 +2535,7 @@
       <c r="F125" s="1"/>
       <c r="G125" s="1"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -2540,7 +2544,7 @@
       <c r="F126" s="1"/>
       <c r="G126" s="1"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -2549,7 +2553,7 @@
       <c r="F127" s="1"/>
       <c r="G127" s="1"/>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -2558,7 +2562,7 @@
       <c r="F128" s="1"/>
       <c r="G128" s="1"/>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -2567,7 +2571,7 @@
       <c r="F129" s="1"/>
       <c r="G129" s="1"/>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -2576,7 +2580,7 @@
       <c r="F130" s="1"/>
       <c r="G130" s="1"/>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -2585,7 +2589,7 @@
       <c r="F131" s="1"/>
       <c r="G131" s="1"/>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -2594,7 +2598,7 @@
       <c r="F132" s="1"/>
       <c r="G132" s="1"/>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -2603,7 +2607,7 @@
       <c r="F133" s="1"/>
       <c r="G133" s="1"/>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -2612,7 +2616,7 @@
       <c r="F134" s="1"/>
       <c r="G134" s="1"/>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -2621,7 +2625,7 @@
       <c r="F135" s="1"/>
       <c r="G135" s="1"/>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -2630,7 +2634,7 @@
       <c r="F136" s="1"/>
       <c r="G136" s="1"/>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -2639,7 +2643,7 @@
       <c r="F137" s="1"/>
       <c r="G137" s="1"/>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -2648,7 +2652,7 @@
       <c r="F138" s="1"/>
       <c r="G138" s="1"/>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -2657,7 +2661,7 @@
       <c r="F139" s="1"/>
       <c r="G139" s="1"/>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -2666,7 +2670,7 @@
       <c r="F140" s="1"/>
       <c r="G140" s="1"/>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -2675,7 +2679,7 @@
       <c r="F141" s="1"/>
       <c r="G141" s="1"/>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -2684,7 +2688,7 @@
       <c r="F142" s="1"/>
       <c r="G142" s="1"/>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -2693,7 +2697,7 @@
       <c r="F143" s="1"/>
       <c r="G143" s="1"/>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -2702,7 +2706,7 @@
       <c r="F144" s="1"/>
       <c r="G144" s="1"/>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -2711,7 +2715,7 @@
       <c r="F145" s="1"/>
       <c r="G145" s="1"/>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -2720,7 +2724,7 @@
       <c r="F146" s="1"/>
       <c r="G146" s="1"/>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -2729,7 +2733,7 @@
       <c r="F147" s="1"/>
       <c r="G147" s="1"/>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -2738,7 +2742,7 @@
       <c r="F148" s="1"/>
       <c r="G148" s="1"/>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -2747,7 +2751,7 @@
       <c r="F149" s="1"/>
       <c r="G149" s="1"/>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -2756,7 +2760,7 @@
       <c r="F150" s="1"/>
       <c r="G150" s="1"/>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
